--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -20,9 +20,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220005地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段00490000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區月眉段21590000地號</t>
+  </si>
+  <si>
+    <t>局雄市杉林區月眉段05800000</t>
+  </si>
+  <si>
+    <t>局雄rfi杉林區上平段02900000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05290000地號</t>
+  </si>
+  <si>
+    <t>®雄市杉W區上平段05270000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05260000地號</t>
+  </si>
+  <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
+    <t>20000分之3</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>11分之1</t>
+  </si>
+  <si>
+    <t>44分之1</t>
+  </si>
+  <si>
+    <t>110分之1</t>
+  </si>
+  <si>
+    <t>林郁方</t>
+  </si>
+  <si>
+    <t>黃昱華</t>
+  </si>
+  <si>
+    <t>97年03月26日</t>
+  </si>
+  <si>
+    <t>84年07月13日</t>
+  </si>
+  <si>
+    <t>90年06月21日</t>
+  </si>
+  <si>
+    <t>90年06月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>cra=fc貝買</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345000(®第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345000(1第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345000(與第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp5c281</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,118 +187,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區永昌段六小段 0022-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 0022-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段0049-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區月眉段2159 - 0000 地號</t>
-  </si>
-  <si>
-    <t>局雄市杉林區月眉段0580-0000</t>
-  </si>
-  <si>
-    <t>局雄rfi杉林區上平段0290-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0529 - 0000 地號</t>
-  </si>
-  <si>
-    <t>®雄市杉W區上平段0527-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0526-0000 地號</t>
-  </si>
-  <si>
-    <t>20000分之 155</t>
-  </si>
-  <si>
-    <t>20000分之 3</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>11分之1</t>
-  </si>
-  <si>
-    <t>44分之1</t>
-  </si>
-  <si>
-    <t>110分之1</t>
-  </si>
-  <si>
-    <t>林郁方</t>
-  </si>
-  <si>
-    <t>黃昱華</t>
-  </si>
-  <si>
-    <t>97年03月 26日</t>
-  </si>
-  <si>
-    <t>84年07月 13日</t>
-  </si>
-  <si>
-    <t>90年06月 21日</t>
-  </si>
-  <si>
-    <t>90年06月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>cra-=fc^ 貝買</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>14,345，000(與 下列七筆為同 一交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(® 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(^1 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14，345，000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14，345,000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345’000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 01214-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 01193-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段 01360-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段00000-000 建號</t>
+    <t>臺北市中正區永昌段六小段01214000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -169,7 +211,7 @@
     <t>貝賈</t>
   </si>
   <si>
-    <t>(超過五年’地 址：上平村山 仙路）</t>
+    <t>(超過五年地址：上平村山仙路）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -181,10 +223,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>國瑞 TOYOTA CAMRY</t>
-  </si>
-  <si>
-    <t>100 年 04 月01曰</t>
+    <t>國瑞TOYOTACAMRY</t>
+  </si>
+  <si>
+    <t>100年04月01曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -202,16 +244,16 @@
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支 局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分 行</t>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -226,7 +268,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1，140,450</t>
+    <t>1140450</t>
   </si>
   <si>
     <t>名稱</t>
@@ -241,22 +283,22 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>(九）珠寳、古董、字晝及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寳古董字晝及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額：新臺幣 元）</t>
+    <t>t額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -286,22 +328,22 @@
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>國泰人壽利率變動型年金甲 型</t>
+    <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
     <t>增額終身壽險</t>
   </si>
   <si>
-    <t>保險期間•• 91.03.20〜 97.03.20，保費繳納方式：年 繳保費：118,404，終身保障， 現金價額：663，600元</t>
-  </si>
-  <si>
-    <t>保險期間：94.03.21〜 104.03.21，保費繳納方式: 定期存款：1,000,000，期滿 領回，價額：1,124,116元</t>
-  </si>
-  <si>
-    <t>保險期間•• 90.01.04〜 110.01.04，保費繳納方式： 年繳保費：21,845，終身保 障，價額：114,200元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜 110.01.04 -保費缴納方式： 年缴保費：30,428，终身保 障，價額：95,800元</t>
+    <t>保險期間91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障現金價額：663600元</t>
+  </si>
+  <si>
+    <t>保險期間：94.03.21〜104.03.21保費繳納方式:定期存款：1000000期滿領回價額：1124116元</t>
+  </si>
+  <si>
+    <t>保險期間90.01.04〜110.01.04保費繳納方式：年繳保費：21845終身保障價額：114200元</t>
+  </si>
+  <si>
+    <t>保險期間：90.01.04〜110.01.04保費缴納方式：年缴保費：30428终身保障價額：95800元</t>
   </si>
   <si>
     <t>投資</t>
@@ -672,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,395 +742,731 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1785</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>807.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1785</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>807.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>716</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>716</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>716</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>716</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
         <v>22</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>716</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>716</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
         <v>26</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>716</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>716</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>773.31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1106,25 +1484,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1132,22 +1510,22 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>152.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>14345000</v>
@@ -1158,22 +1536,22 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>14345000</v>
@@ -1184,22 +1562,22 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>14345000</v>
@@ -1210,22 +1588,22 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>14345000</v>
@@ -1236,25 +1614,25 @@
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
         <v>116.91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1262,25 +1640,25 @@
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1298,22 +1676,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1321,19 +1699,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>620000</v>
@@ -1354,19 +1732,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1374,19 +1752,19 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1394,16 +1772,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>777017</v>
@@ -1414,16 +1792,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>8266572</v>
@@ -1434,16 +1812,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>535650</v>
@@ -1454,16 +1832,16 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>1135080</v>
@@ -1474,16 +1852,16 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>1264</v>
@@ -1504,22 +1882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1527,14 +1905,14 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1544,22 +1922,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1577,16 +1955,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1594,16 +1972,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1611,16 +1989,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1628,16 +2006,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1645,16 +2023,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1672,10 +2050,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1683,10 +2061,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -97,12 +97,12 @@
     <t>高雄市杉林區上平段05260000地號</t>
   </si>
   <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
     <t>20000分之3</t>
   </si>
   <si>
-    <t>20000分之155</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
     <t>14345000(®第一筆為同一交易）</t>
   </si>
   <si>
@@ -172,25 +175,25 @@
     <t>臺北市中正區永昌段六小段01214000建號</t>
   </si>
   <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
+    <t>174分之3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>貝賈</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段01193000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段01360000建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段00000000建號</t>
-  </si>
-  <si>
-    <t>174分之3</t>
-  </si>
-  <si>
-    <t>全部</t>
   </si>
   <si>
     <t>(超過五年地址：上平村山仙路）</t>
@@ -648,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +709,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -730,13 +733,13 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -745,27 +748,27 @@
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -777,19 +780,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -798,21 +801,21 @@
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -830,19 +833,19 @@
         <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -851,33 +854,33 @@
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="2">
-        <v>1785</v>
+        <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -886,16 +889,16 @@
         <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -904,21 +907,21 @@
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q5" s="2">
-        <v>13.83375</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -936,19 +939,19 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -957,27 +960,27 @@
         <v>716</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -989,19 +992,19 @@
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1010,21 +1013,21 @@
         <v>716</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q7" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1042,19 +1045,19 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1063,51 +1066,51 @@
         <v>716</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>148</v>
+        <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1116,51 +1119,51 @@
         <v>716</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>0.25</v>
+        <v>0.00015</v>
       </c>
       <c r="Q9" s="2">
-        <v>37</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>1635</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1169,51 +1172,51 @@
         <v>716</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>148.636363636364</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>328</v>
+        <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1222,51 +1225,51 @@
         <v>716</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q11" s="2">
-        <v>7.45454545454546</v>
+        <v>148.636363636364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>685.59</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1275,30 +1278,30 @@
         <v>716</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>0.00909090909090909</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="Q12" s="2">
-        <v>6.23263636363636</v>
+        <v>7.45454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>942.75</v>
+        <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1310,16 +1313,16 @@
         <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>31</v>
@@ -1328,30 +1331,30 @@
         <v>716</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O13" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="Q13" s="2">
-        <v>85.7045454545455</v>
+        <v>6.23263636363636</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>942.75</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
-        <v>813.08</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1363,16 +1366,16 @@
         <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
@@ -1381,30 +1384,30 @@
         <v>716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q14" s="2">
-        <v>18.4790909090909</v>
+        <v>85.7045454545455</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>813.08</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2">
-        <v>773.31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1416,16 +1419,16 @@
         <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
@@ -1434,15 +1437,68 @@
         <v>716</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>18.4790909090909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>773.31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="2">
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="2">
         <v>29</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P16" s="2">
         <v>0.0909090909090909</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q16" s="2">
         <v>70.3009090909091</v>
       </c>
     </row>
@@ -1453,47 +1509,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>152.52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1">
-        <v>14345000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1502,27 +1585,54 @@
         <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>14345000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
-        <v>152.52</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1533,19 +1643,46 @@
       <c r="H3" s="2">
         <v>14345000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>4.5</v>
+        <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1554,62 +1691,196 @@
         <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>14345000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>14345000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116.91</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>38</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>116.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2">
-        <v>116.91</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="C7" s="2">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
+      <c r="P7" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>12.5454545454545</v>
       </c>
     </row>
   </sheetData>
@@ -1618,169 +1889,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1">
-        <v>620000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>777017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8266572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
-        <v>535650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1135080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1790,39 +1898,262 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1">
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
+        <v>620000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>777017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8266572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>535650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1135080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +2163,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1840,41 +2171,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
@@ -1888,19 +2219,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1910,18 +2258,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>(超過五年地址：上平村山仙路）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞TOYOTACAMRY</t>
@@ -1890,38 +1893,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1">
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1930,13 +1954,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>620000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1954,19 +1999,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1974,19 +2019,19 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1994,13 +2039,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2014,13 +2059,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -2034,13 +2079,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2054,13 +2099,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2074,13 +2119,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2104,14 +2149,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2121,16 +2166,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2138,22 +2183,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2171,16 +2216,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2188,16 +2233,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2205,16 +2250,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2222,16 +2267,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2239,16 +2284,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2311,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2277,10 +2322,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -199,6 +199,9 @@
     <t>(超過五年地址：上平村山仙路）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>100年04月01曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北金南郵局（第91支）</t>
@@ -1594,7 +1600,7 @@
         <v>14345000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -1647,7 +1653,7 @@
         <v>14345000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -1700,7 +1706,7 @@
         <v>14345000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>47</v>
@@ -1753,7 +1759,7 @@
         <v>14345000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>47</v>
@@ -1806,7 +1812,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>47</v>
@@ -1859,7 +1865,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>47</v>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1945,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1954,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -1963,7 +1969,7 @@
         <v>620000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1999,19 +2005,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2019,19 +2025,19 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2039,13 +2045,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2059,13 +2065,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -2079,13 +2085,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2099,13 +2105,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2119,13 +2125,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2149,14 +2155,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2166,16 +2172,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2183,22 +2189,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2216,16 +2222,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2233,16 +2239,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2250,16 +2256,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2267,16 +2273,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2284,16 +2290,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2311,10 +2317,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2322,10 +2328,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -214,34 +214,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1140450</t>
-  </si>
-  <si>
-    <t>台北東門郵局（台北1支局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分行</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寳古董字晝及#</t>
@@ -1997,13 +2006,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2014,33 +2023,75 @@
         <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1140450</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>716</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>65</v>
       </c>
@@ -2048,10 +2099,10 @@
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2059,8 +2110,29 @@
       <c r="F3" s="2">
         <v>777017</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>716</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>66</v>
       </c>
@@ -2068,10 +2140,10 @@
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -2079,8 +2151,29 @@
       <c r="F4" s="2">
         <v>8266572</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>716</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>67</v>
       </c>
@@ -2088,10 +2181,10 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2099,8 +2192,29 @@
       <c r="F5" s="2">
         <v>535650</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>716</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>68</v>
       </c>
@@ -2108,10 +2222,10 @@
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2119,8 +2233,29 @@
       <c r="F6" s="2">
         <v>1135080</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>716</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>69</v>
       </c>
@@ -2128,16 +2263,37 @@
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>1264</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>716</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2155,14 +2311,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2172,16 +2328,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2189,22 +2345,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2222,16 +2378,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2239,16 +2395,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2256,16 +2412,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2273,16 +2429,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2290,16 +2446,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2317,10 +2473,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2328,10 +2484,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -11,16 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -251,33 +250,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寳古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2303,73 +2275,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2378,16 +2283,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2395,16 +2300,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2412,16 +2317,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2429,16 +2334,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2446,16 +2351,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2473,10 +2378,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2484,10 +2389,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
+++ b/legislator/property/output/normal/林郁方_2012-04-23_財產申報表_tmp5c281.xlsx
@@ -12,14 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="保險" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -252,37 +252,58 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障現金價額：663600元</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
     <t>增額終身壽險</t>
   </si>
   <si>
-    <t>保險期間：94.03.21〜104.03.21保費繳納方式:定期存款：1000000期滿領回價額：1124116元</t>
-  </si>
-  <si>
-    <t>保險期間90.01.04〜110.01.04保費繳納方式：年繳保費：21845終身保障價額：114200元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜110.01.04保費缴納方式：年缴保費：30428终身保障價額：95800元</t>
-  </si>
-  <si>
-    <t>(十三）備</t>
-  </si>
-  <si>
-    <t>註</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>親友借款</t>
+  </si>
+  <si>
+    <t>國泰世華台北分行臺北市中正區博愛路</t>
+  </si>
+  <si>
+    <t>賴志威臺北市信義區松德路</t>
+  </si>
+  <si>
+    <t>張宏瑋臺北市内湖區大湖山莊街</t>
+  </si>
+  <si>
+    <t>97年05月05日</t>
+  </si>
+  <si>
+    <t>97年05月15日</t>
+  </si>
+  <si>
+    <t>購買房屋自備款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2275,49 +2296,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>716</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>81</v>
@@ -2328,13 +2385,31 @@
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>716</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>82</v>
@@ -2343,15 +2418,33 @@
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>716</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>82</v>
@@ -2360,7 +2453,25 @@
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2">
+        <v>716</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2370,29 +2481,183 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6148905</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>716</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>716</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
